--- a/camelyon_tae_ks_results_sudden.xlsx
+++ b/camelyon_tae_ks_results_sudden.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>50% train 50% init</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
